--- a/data/backend/forum-client_structure.xlsx
+++ b/data/backend/forum-client_structure.xlsx
@@ -643,45 +643,45 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>topicId</t>
+  </si>
+  <si>
     <t>pageNumber</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>topicId</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>modificationTimestamp</t>
+  </si>
+  <si>
     <t>likesAmount</t>
   </si>
   <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>modificationTimestamp</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>query</t>
   </si>
   <si>
@@ -694,27 +694,27 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>likedPosts</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>responses</t>
   </si>
   <si>
     <t>likedResponses</t>
   </si>
   <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>imageUrl</t>
   </si>
   <si>
@@ -727,34 +727,34 @@
     <t>postId</t>
   </si>
   <si>
+    <t>NEWEST_FIRST</t>
+  </si>
+  <si>
     <t>OLDEST_FIRST</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>ALPHABETICAL</t>
+  </si>
+  <si>
     <t>REVERSE_ALPHABETICAL</t>
   </si>
   <si>
-    <t>ALPHABETICAL</t>
-  </si>
-  <si>
-    <t>NEWEST_FIRST</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>parentTopicId</t>
   </si>
   <si>
     <t>postsAmount</t>
   </si>
   <si>
+    <t>isLiked</t>
+  </si>
+  <si>
+    <t>responsesAmount</t>
+  </si>
+  <si>
     <t>topic</t>
-  </si>
-  <si>
-    <t>responsesAmount</t>
-  </si>
-  <si>
-    <t>isLiked</t>
   </si>
   <si>
     <t>pageAmount</t>
@@ -11874,7 +11874,7 @@
         <v>144</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -11888,7 +11888,7 @@
         <v>144</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -11902,7 +11902,7 @@
         <v>144</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -11910,13 +11910,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -11924,13 +11924,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -11944,7 +11944,7 @@
         <v>144</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -11966,13 +11966,13 @@
         <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -11980,13 +11980,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -12000,7 +12000,7 @@
         <v>144</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -12008,13 +12008,13 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -12022,7 +12022,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>144</v>
@@ -12036,13 +12036,13 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -12050,13 +12050,13 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -12064,13 +12064,13 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -12084,7 +12084,7 @@
         <v>144</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -12098,7 +12098,7 @@
         <v>144</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -12120,7 +12120,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>144</v>
@@ -12134,7 +12134,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>144</v>
@@ -12190,7 +12190,7 @@
         <v>74</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>144</v>
@@ -12218,13 +12218,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -12232,13 +12232,13 @@
         <v>81</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -12252,7 +12252,7 @@
         <v>144</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -12280,7 +12280,7 @@
         <v>144</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -12294,7 +12294,7 @@
         <v>144</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -12308,7 +12308,7 @@
         <v>144</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -12330,13 +12330,13 @@
         <v>90</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -12344,7 +12344,7 @@
         <v>90</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>144</v>
@@ -12358,13 +12358,13 @@
         <v>90</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -12400,7 +12400,7 @@
         <v>91</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>144</v>
@@ -12414,7 +12414,7 @@
         <v>91</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>144</v>
@@ -12442,7 +12442,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>144</v>
@@ -12456,7 +12456,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>144</v>
@@ -12470,7 +12470,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>144</v>
@@ -12484,7 +12484,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>144</v>
@@ -12498,7 +12498,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>144</v>
@@ -12512,13 +12512,13 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -12526,13 +12526,13 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
@@ -12540,7 +12540,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>144</v>
@@ -12554,13 +12554,13 @@
         <v>113</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -12568,7 +12568,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>144</v>
@@ -12582,13 +12582,13 @@
         <v>113</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -12652,13 +12652,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -12666,13 +12666,13 @@
         <v>54</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -12680,7 +12680,7 @@
         <v>54</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>144</v>
@@ -12694,13 +12694,13 @@
         <v>118</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -12722,7 +12722,7 @@
         <v>118</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>144</v>
@@ -12736,13 +12736,13 @@
         <v>118</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -12792,7 +12792,7 @@
         <v>39</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>144</v>
@@ -12806,7 +12806,7 @@
         <v>39</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>144</v>
@@ -12820,13 +12820,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
@@ -12834,13 +12834,13 @@
         <v>39</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
@@ -12848,13 +12848,13 @@
         <v>39</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
@@ -12862,7 +12862,7 @@
         <v>39</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>144</v>
@@ -12876,13 +12876,13 @@
         <v>39</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -12890,13 +12890,13 @@
         <v>39</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
@@ -12935,10 +12935,10 @@
         <v>237</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
@@ -12963,10 +12963,10 @@
         <v>239</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -13016,7 +13016,7 @@
         <v>157</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>144</v>
@@ -13030,13 +13030,13 @@
         <v>157</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
@@ -13044,13 +13044,13 @@
         <v>157</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -13058,13 +13058,13 @@
         <v>157</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
@@ -13072,7 +13072,7 @@
         <v>157</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>144</v>
@@ -13100,13 +13100,13 @@
         <v>163</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
@@ -13114,13 +13114,13 @@
         <v>163</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93">
@@ -13128,7 +13128,7 @@
         <v>163</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>144</v>
@@ -13142,13 +13142,13 @@
         <v>163</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95">
@@ -13156,13 +13156,13 @@
         <v>163</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>157</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
@@ -13170,13 +13170,13 @@
         <v>163</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97">
@@ -13184,13 +13184,13 @@
         <v>163</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -13198,13 +13198,13 @@
         <v>163</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
@@ -13212,13 +13212,13 @@
         <v>163</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -13226,13 +13226,13 @@
         <v>163</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -13240,13 +13240,13 @@
         <v>163</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>167</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
@@ -13254,7 +13254,7 @@
         <v>175</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>144</v>
@@ -13268,13 +13268,13 @@
         <v>175</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
@@ -13296,13 +13296,13 @@
         <v>175</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -13310,13 +13310,13 @@
         <v>116</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -13324,13 +13324,13 @@
         <v>116</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>13</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108">
@@ -13338,13 +13338,13 @@
         <v>116</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
@@ -13352,7 +13352,7 @@
         <v>116</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>144</v>
@@ -13366,7 +13366,7 @@
         <v>123</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>144</v>
@@ -13408,7 +13408,7 @@
         <v>123</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>144</v>
@@ -13422,7 +13422,7 @@
         <v>161</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>144</v>
@@ -13436,7 +13436,7 @@
         <v>161</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>144</v>
@@ -13450,7 +13450,7 @@
         <v>161</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>144</v>
@@ -13464,7 +13464,7 @@
         <v>161</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>144</v>
@@ -13478,13 +13478,13 @@
         <v>161</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
@@ -13492,13 +13492,13 @@
         <v>161</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120">
@@ -13506,13 +13506,13 @@
         <v>36</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -13520,13 +13520,13 @@
         <v>36</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122">
@@ -13618,13 +13618,13 @@
         <v>79</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -13632,13 +13632,13 @@
         <v>79</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130">
@@ -13652,7 +13652,7 @@
         <v>144</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
@@ -13660,13 +13660,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132">
@@ -13674,7 +13674,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>144</v>
@@ -13730,13 +13730,13 @@
         <v>168</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137">
@@ -13744,7 +13744,7 @@
         <v>168</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>144</v>
@@ -13758,13 +13758,13 @@
         <v>168</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139">
@@ -13786,13 +13786,13 @@
         <v>168</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141">
@@ -13800,13 +13800,13 @@
         <v>168</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>167</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142">
@@ -13814,13 +13814,13 @@
         <v>168</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
@@ -13828,13 +13828,13 @@
         <v>168</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144">
@@ -13842,13 +13842,13 @@
         <v>168</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -13856,13 +13856,13 @@
         <v>168</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
@@ -13870,13 +13870,13 @@
         <v>168</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>84</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147">
@@ -13926,13 +13926,13 @@
         <v>179</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
@@ -13940,13 +13940,13 @@
         <v>179</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
@@ -13954,7 +13954,7 @@
         <v>179</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>144</v>
@@ -13968,7 +13968,7 @@
         <v>179</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>144</v>
@@ -13982,7 +13982,7 @@
         <v>31</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>144</v>
@@ -13996,13 +13996,13 @@
         <v>31</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156">
@@ -14024,13 +14024,13 @@
         <v>31</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -14038,7 +14038,7 @@
         <v>31</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>144</v>
@@ -14094,13 +14094,13 @@
         <v>182</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163">
@@ -14122,7 +14122,7 @@
         <v>182</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>6</v>
@@ -14136,13 +14136,13 @@
         <v>182</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166">
@@ -14150,7 +14150,7 @@
         <v>182</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>

--- a/data/backend/forum-client_structure.xlsx
+++ b/data/backend/forum-client_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5841" uniqueCount="285">
   <si>
     <t>Class Name</t>
   </si>
@@ -643,78 +645,78 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>topicId</t>
+  </si>
+  <si>
+    <t>pageNumber</t>
+  </si>
+  <si>
     <t>pageSize</t>
   </si>
   <si>
-    <t>topicId</t>
-  </si>
-  <si>
-    <t>pageNumber</t>
+    <t>content</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>content</t>
+    <t>email</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>email</t>
+    <t>modificationTimestamp</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>likesAmount</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
     <t>likes</t>
   </si>
   <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>modificationTimestamp</t>
-  </si>
-  <si>
-    <t>likesAmount</t>
-  </si>
-  <si>
     <t>query</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>responses</t>
   </si>
   <si>
     <t>posts</t>
   </si>
   <si>
+    <t>likedPosts</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>likedPosts</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>responses</t>
+    <t>surname</t>
   </si>
   <si>
     <t>likedResponses</t>
   </si>
   <si>
-    <t>surname</t>
-  </si>
-  <si>
     <t>imageUrl</t>
   </si>
   <si>
@@ -727,36 +729,36 @@
     <t>postId</t>
   </si>
   <si>
+    <t>OLDEST_FIRST</t>
+  </si>
+  <si>
+    <t>ALPHABETICAL</t>
+  </si>
+  <si>
     <t>NEWEST_FIRST</t>
   </si>
   <si>
-    <t>OLDEST_FIRST</t>
+    <t>REVERSE_ALPHABETICAL</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>ALPHABETICAL</t>
-  </si>
-  <si>
-    <t>REVERSE_ALPHABETICAL</t>
+    <t>postsAmount</t>
   </si>
   <si>
     <t>parentTopicId</t>
   </si>
   <si>
-    <t>postsAmount</t>
-  </si>
-  <si>
     <t>isLiked</t>
   </si>
   <si>
+    <t>topic</t>
+  </si>
+  <si>
     <t>responsesAmount</t>
   </si>
   <si>
-    <t>topic</t>
-  </si>
-  <si>
     <t>pageAmount</t>
   </si>
   <si>
@@ -797,6 +799,84 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -11800,6 +11880,3614 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C298"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -11860,7 +15548,7 @@
         <v>144</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -11874,7 +15562,7 @@
         <v>144</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -11896,13 +15584,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -11910,13 +15598,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -11944,7 +15632,7 @@
         <v>144</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -11958,7 +15646,7 @@
         <v>144</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -11972,7 +15660,7 @@
         <v>144</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -11986,7 +15674,7 @@
         <v>144</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -11994,13 +15682,13 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -12008,13 +15696,13 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -12022,13 +15710,13 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -12036,7 +15724,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>144</v>
@@ -12050,7 +15738,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>144</v>
@@ -12064,13 +15752,13 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -12098,7 +15786,7 @@
         <v>144</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -12134,7 +15822,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>144</v>
@@ -12154,7 +15842,7 @@
         <v>63</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -12162,13 +15850,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -12176,13 +15864,13 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
@@ -12190,7 +15878,7 @@
         <v>74</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>144</v>
@@ -12204,7 +15892,7 @@
         <v>74</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>144</v>
@@ -12218,7 +15906,7 @@
         <v>81</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>144</v>
@@ -12232,7 +15920,7 @@
         <v>81</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>144</v>
@@ -12246,13 +15934,13 @@
         <v>81</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -12260,7 +15948,7 @@
         <v>81</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>144</v>
@@ -12274,7 +15962,7 @@
         <v>81</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>144</v>
@@ -12294,7 +15982,7 @@
         <v>144</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -12308,7 +15996,7 @@
         <v>144</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -12322,7 +16010,7 @@
         <v>144</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -12330,13 +16018,13 @@
         <v>90</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -12344,7 +16032,7 @@
         <v>90</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>144</v>
@@ -12358,13 +16046,13 @@
         <v>90</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -12372,7 +16060,7 @@
         <v>90</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>144</v>
@@ -12386,7 +16074,7 @@
         <v>91</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>144</v>
@@ -12400,7 +16088,7 @@
         <v>91</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>144</v>
@@ -12414,7 +16102,7 @@
         <v>91</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>144</v>
@@ -12442,7 +16130,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>144</v>
@@ -12462,7 +16150,7 @@
         <v>144</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -12470,7 +16158,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>144</v>
@@ -12484,13 +16172,13 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -12498,7 +16186,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>144</v>
@@ -12518,7 +16206,7 @@
         <v>144</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
@@ -12526,13 +16214,13 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -12540,7 +16228,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>144</v>
@@ -12554,13 +16242,13 @@
         <v>113</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -12582,13 +16270,13 @@
         <v>113</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>13</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55">
@@ -12596,13 +16284,13 @@
         <v>113</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
@@ -12616,7 +16304,7 @@
         <v>63</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -12624,13 +16312,13 @@
         <v>117</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58">
@@ -12638,13 +16326,13 @@
         <v>117</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59">
@@ -12652,13 +16340,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60">
@@ -12680,13 +16368,13 @@
         <v>54</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -12694,7 +16382,7 @@
         <v>118</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>144</v>
@@ -12708,7 +16396,7 @@
         <v>118</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>144</v>
@@ -12722,7 +16410,7 @@
         <v>118</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>144</v>
@@ -12736,7 +16424,7 @@
         <v>118</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>144</v>
@@ -12756,7 +16444,7 @@
         <v>63</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -12764,13 +16452,13 @@
         <v>124</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68">
@@ -12778,13 +16466,13 @@
         <v>124</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69">
@@ -12792,7 +16480,7 @@
         <v>39</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>144</v>
@@ -12812,7 +16500,7 @@
         <v>144</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
@@ -12820,7 +16508,7 @@
         <v>39</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>144</v>
@@ -12834,13 +16522,13 @@
         <v>39</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
@@ -12848,7 +16536,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>144</v>
@@ -12862,13 +16550,13 @@
         <v>39</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -12876,13 +16564,13 @@
         <v>39</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
@@ -12890,13 +16578,13 @@
         <v>39</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
@@ -12935,10 +16623,10 @@
         <v>237</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
@@ -12963,10 +16651,10 @@
         <v>239</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -12980,7 +16668,7 @@
         <v>63</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -12988,13 +16676,13 @@
         <v>156</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84">
@@ -13002,13 +16690,13 @@
         <v>156</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85">
@@ -13030,7 +16718,7 @@
         <v>157</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>144</v>
@@ -13064,7 +16752,7 @@
         <v>144</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -13072,13 +16760,13 @@
         <v>157</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90">
@@ -13100,13 +16788,13 @@
         <v>163</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
@@ -13114,13 +16802,13 @@
         <v>163</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
@@ -13128,13 +16816,13 @@
         <v>163</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -13142,13 +16830,13 @@
         <v>163</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
@@ -13156,13 +16844,13 @@
         <v>163</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>84</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96">
@@ -13170,13 +16858,13 @@
         <v>163</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>167</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -13190,7 +16878,7 @@
         <v>144</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
@@ -13204,7 +16892,7 @@
         <v>144</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
@@ -13212,13 +16900,13 @@
         <v>163</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
@@ -13226,13 +16914,13 @@
         <v>163</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
@@ -13240,13 +16928,13 @@
         <v>163</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102">
@@ -13254,7 +16942,7 @@
         <v>175</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>144</v>
@@ -13282,7 +16970,7 @@
         <v>175</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>144</v>
@@ -13310,13 +16998,13 @@
         <v>116</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107">
@@ -13324,13 +17012,13 @@
         <v>116</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
@@ -13338,13 +17026,13 @@
         <v>116</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -13352,13 +17040,13 @@
         <v>116</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110">
@@ -13366,7 +17054,7 @@
         <v>123</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>144</v>
@@ -13380,7 +17068,7 @@
         <v>123</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>144</v>
@@ -13394,13 +17082,13 @@
         <v>123</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
@@ -13414,7 +17102,7 @@
         <v>144</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -13422,13 +17110,13 @@
         <v>161</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115">
@@ -13436,13 +17124,13 @@
         <v>161</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116">
@@ -13450,13 +17138,13 @@
         <v>161</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
@@ -13464,13 +17152,13 @@
         <v>161</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -13478,13 +17166,13 @@
         <v>161</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -13492,13 +17180,13 @@
         <v>161</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120">
@@ -13506,7 +17194,7 @@
         <v>36</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>144</v>
@@ -13520,7 +17208,7 @@
         <v>36</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>144</v>
@@ -13540,7 +17228,7 @@
         <v>63</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -13548,13 +17236,13 @@
         <v>186</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124">
@@ -13562,13 +17250,13 @@
         <v>186</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125">
@@ -13582,7 +17270,7 @@
         <v>63</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -13590,13 +17278,13 @@
         <v>187</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127">
@@ -13604,13 +17292,13 @@
         <v>187</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128">
@@ -13618,7 +17306,7 @@
         <v>79</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>144</v>
@@ -13632,7 +17320,7 @@
         <v>79</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>144</v>
@@ -13646,7 +17334,7 @@
         <v>16</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>144</v>
@@ -13660,13 +17348,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132">
@@ -13680,7 +17368,7 @@
         <v>144</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133">
@@ -13694,7 +17382,7 @@
         <v>63</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -13702,13 +17390,13 @@
         <v>190</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135">
@@ -13716,13 +17404,13 @@
         <v>190</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136">
@@ -13730,13 +17418,13 @@
         <v>168</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
@@ -13744,13 +17432,13 @@
         <v>168</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138">
@@ -13758,13 +17446,13 @@
         <v>168</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
@@ -13772,13 +17460,13 @@
         <v>168</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
@@ -13786,13 +17474,13 @@
         <v>168</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141">
@@ -13800,7 +17488,7 @@
         <v>168</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>144</v>
@@ -13814,13 +17502,13 @@
         <v>168</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143">
@@ -13828,13 +17516,13 @@
         <v>168</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144">
@@ -13856,13 +17544,13 @@
         <v>168</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146">
@@ -13870,13 +17558,13 @@
         <v>168</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147">
@@ -13890,7 +17578,7 @@
         <v>63</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -13898,13 +17586,13 @@
         <v>195</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149">
@@ -13912,13 +17600,13 @@
         <v>195</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150">
@@ -13940,13 +17628,13 @@
         <v>179</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152">
@@ -13954,7 +17642,7 @@
         <v>179</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>144</v>
@@ -13968,13 +17656,13 @@
         <v>179</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -13982,13 +17670,13 @@
         <v>31</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155">
@@ -13996,13 +17684,13 @@
         <v>31</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -14010,13 +17698,13 @@
         <v>31</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157">
@@ -14024,13 +17712,13 @@
         <v>31</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158">
@@ -14038,7 +17726,7 @@
         <v>31</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>144</v>
@@ -14058,7 +17746,7 @@
         <v>63</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -14066,13 +17754,13 @@
         <v>198</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161">
@@ -14080,13 +17768,13 @@
         <v>198</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162">
@@ -14097,10 +17785,10 @@
         <v>237</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163">
@@ -14108,7 +17796,7 @@
         <v>182</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
@@ -14122,7 +17810,7 @@
         <v>182</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>6</v>
@@ -14150,13 +17838,13 @@
         <v>182</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/forum-client_structure.xlsx
+++ b/data/backend/forum-client_structure.xlsx
@@ -654,100 +654,100 @@
     <t>pageSize</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
-    <t>title</t>
+    <t>id</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>id</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>likesAmount</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>likes</t>
   </si>
   <si>
     <t>modificationTimestamp</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>likesAmount</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
     <t>query</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
     <t>responses</t>
   </si>
   <si>
-    <t>posts</t>
+    <t>likedResponses</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>likedPosts</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>likedResponses</t>
+    <t>parentId</t>
   </si>
   <si>
     <t>imageUrl</t>
   </si>
   <si>
-    <t>parentId</t>
-  </si>
-  <si>
     <t>sortingOrder</t>
   </si>
   <si>
     <t>postId</t>
   </si>
   <si>
+    <t>ALPHABETICAL</t>
+  </si>
+  <si>
     <t>OLDEST_FIRST</t>
   </si>
   <si>
-    <t>ALPHABETICAL</t>
+    <t>REVERSE_ALPHABETICAL</t>
   </si>
   <si>
     <t>NEWEST_FIRST</t>
   </si>
   <si>
-    <t>REVERSE_ALPHABETICAL</t>
-  </si>
-  <si>
     <t>$VALUES</t>
   </si>
   <si>
+    <t>parentTopicId</t>
+  </si>
+  <si>
     <t>postsAmount</t>
-  </si>
-  <si>
-    <t>parentTopicId</t>
   </si>
   <si>
     <t>isLiked</t>
@@ -15584,13 +15584,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -15598,7 +15598,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>144</v>
@@ -15612,13 +15612,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -15632,7 +15632,7 @@
         <v>144</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -15646,7 +15646,7 @@
         <v>144</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -15654,7 +15654,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>144</v>
@@ -15668,7 +15668,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>144</v>
@@ -15682,13 +15682,13 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -15696,13 +15696,13 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -15724,13 +15724,13 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -15738,7 +15738,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>144</v>
@@ -15752,13 +15752,13 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -15766,13 +15766,13 @@
         <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -15786,7 +15786,7 @@
         <v>144</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -15842,7 +15842,7 @@
         <v>63</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
@@ -15850,13 +15850,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -15864,13 +15864,13 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -15884,7 +15884,7 @@
         <v>144</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -15898,7 +15898,7 @@
         <v>144</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -15906,7 +15906,7 @@
         <v>81</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>144</v>
@@ -15920,13 +15920,13 @@
         <v>81</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -15934,7 +15934,7 @@
         <v>81</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>144</v>
@@ -15948,13 +15948,13 @@
         <v>81</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -15962,13 +15962,13 @@
         <v>81</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -15982,7 +15982,7 @@
         <v>144</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -16018,13 +16018,13 @@
         <v>90</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -16038,7 +16038,7 @@
         <v>144</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -16046,13 +16046,13 @@
         <v>90</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -16060,13 +16060,13 @@
         <v>90</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -16074,13 +16074,13 @@
         <v>91</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -16088,7 +16088,7 @@
         <v>91</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>144</v>
@@ -16102,7 +16102,7 @@
         <v>91</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>144</v>
@@ -16116,13 +16116,13 @@
         <v>91</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -16130,13 +16130,13 @@
         <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -16144,7 +16144,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>144</v>
@@ -16158,13 +16158,13 @@
         <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -16172,7 +16172,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>144</v>
@@ -16186,13 +16186,13 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
@@ -16200,7 +16200,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>144</v>
@@ -16214,7 +16214,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>144</v>
@@ -16228,13 +16228,13 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -16242,13 +16242,13 @@
         <v>113</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -16270,13 +16270,13 @@
         <v>113</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -16284,13 +16284,13 @@
         <v>113</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56">
@@ -16304,7 +16304,7 @@
         <v>63</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57">
@@ -16312,13 +16312,13 @@
         <v>117</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -16326,13 +16326,13 @@
         <v>117</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59">
@@ -16382,13 +16382,13 @@
         <v>118</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -16396,7 +16396,7 @@
         <v>118</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>144</v>
@@ -16430,7 +16430,7 @@
         <v>144</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -16444,7 +16444,7 @@
         <v>63</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67">
@@ -16452,13 +16452,13 @@
         <v>124</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -16466,13 +16466,13 @@
         <v>124</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69">
@@ -16480,7 +16480,7 @@
         <v>39</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>144</v>
@@ -16494,13 +16494,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
@@ -16508,13 +16508,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
@@ -16522,13 +16522,13 @@
         <v>39</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -16542,7 +16542,7 @@
         <v>144</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
@@ -16550,13 +16550,13 @@
         <v>39</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
@@ -16578,7 +16578,7 @@
         <v>39</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>144</v>
@@ -16668,7 +16668,7 @@
         <v>63</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83">
@@ -16676,13 +16676,13 @@
         <v>156</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -16690,13 +16690,13 @@
         <v>156</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85">
@@ -16718,7 +16718,7 @@
         <v>157</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>144</v>
@@ -16732,13 +16732,13 @@
         <v>157</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
@@ -16746,7 +16746,7 @@
         <v>157</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>144</v>
@@ -16760,13 +16760,13 @@
         <v>157</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -16788,13 +16788,13 @@
         <v>163</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>84</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92">
@@ -16802,13 +16802,13 @@
         <v>163</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93">
@@ -16816,13 +16816,13 @@
         <v>163</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>13</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
@@ -16836,7 +16836,7 @@
         <v>144</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
@@ -16844,13 +16844,13 @@
         <v>163</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
@@ -16858,7 +16858,7 @@
         <v>163</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>144</v>
@@ -16872,13 +16872,13 @@
         <v>163</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -16886,13 +16886,13 @@
         <v>163</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
@@ -16900,13 +16900,13 @@
         <v>163</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100">
@@ -16914,13 +16914,13 @@
         <v>163</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -16928,13 +16928,13 @@
         <v>163</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
@@ -16942,13 +16942,13 @@
         <v>175</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -16984,13 +16984,13 @@
         <v>175</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106">
@@ -16998,13 +16998,13 @@
         <v>116</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107">
@@ -17026,13 +17026,13 @@
         <v>116</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
@@ -17040,13 +17040,13 @@
         <v>116</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -17054,13 +17054,13 @@
         <v>123</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
@@ -17068,13 +17068,13 @@
         <v>123</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -17082,13 +17082,13 @@
         <v>123</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -17102,7 +17102,7 @@
         <v>144</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114">
@@ -17110,13 +17110,13 @@
         <v>161</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115">
@@ -17124,13 +17124,13 @@
         <v>161</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -17138,7 +17138,7 @@
         <v>161</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>144</v>
@@ -17152,13 +17152,13 @@
         <v>161</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118">
@@ -17180,7 +17180,7 @@
         <v>161</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>144</v>
@@ -17194,7 +17194,7 @@
         <v>36</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>144</v>
@@ -17208,7 +17208,7 @@
         <v>36</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>144</v>
@@ -17228,7 +17228,7 @@
         <v>63</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123">
@@ -17236,13 +17236,13 @@
         <v>186</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -17250,13 +17250,13 @@
         <v>186</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125">
@@ -17270,7 +17270,7 @@
         <v>63</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126">
@@ -17278,13 +17278,13 @@
         <v>187</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -17292,13 +17292,13 @@
         <v>187</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128">
@@ -17306,7 +17306,7 @@
         <v>79</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>144</v>
@@ -17320,7 +17320,7 @@
         <v>79</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>144</v>
@@ -17348,13 +17348,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132">
@@ -17362,13 +17362,13 @@
         <v>16</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133">
@@ -17382,7 +17382,7 @@
         <v>63</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134">
@@ -17390,13 +17390,13 @@
         <v>190</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -17404,13 +17404,13 @@
         <v>190</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136">
@@ -17418,13 +17418,13 @@
         <v>168</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
@@ -17432,13 +17432,13 @@
         <v>168</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138">
@@ -17446,13 +17446,13 @@
         <v>168</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
@@ -17460,13 +17460,13 @@
         <v>168</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140">
@@ -17474,13 +17474,13 @@
         <v>168</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>167</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141">
@@ -17488,13 +17488,13 @@
         <v>168</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142">
@@ -17502,13 +17502,13 @@
         <v>168</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143">
@@ -17516,7 +17516,7 @@
         <v>168</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>144</v>
@@ -17530,13 +17530,13 @@
         <v>168</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145">
@@ -17544,13 +17544,13 @@
         <v>168</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -17558,13 +17558,13 @@
         <v>168</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147">
@@ -17578,7 +17578,7 @@
         <v>63</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148">
@@ -17586,13 +17586,13 @@
         <v>195</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
@@ -17600,13 +17600,13 @@
         <v>195</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150">
@@ -17614,13 +17614,13 @@
         <v>179</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -17656,13 +17656,13 @@
         <v>179</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
@@ -17670,7 +17670,7 @@
         <v>31</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>144</v>
@@ -17684,13 +17684,13 @@
         <v>31</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156">
@@ -17698,13 +17698,13 @@
         <v>31</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -17712,7 +17712,7 @@
         <v>31</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>144</v>
@@ -17726,7 +17726,7 @@
         <v>31</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>144</v>
@@ -17746,7 +17746,7 @@
         <v>63</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160">
@@ -17754,13 +17754,13 @@
         <v>198</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -17768,13 +17768,13 @@
         <v>198</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162">
@@ -17782,7 +17782,7 @@
         <v>182</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>6</v>
@@ -17796,7 +17796,7 @@
         <v>182</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
@@ -17810,7 +17810,7 @@
         <v>182</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>6</v>
@@ -17824,7 +17824,7 @@
         <v>182</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>

--- a/data/backend/forum-client_structure.xlsx
+++ b/data/backend/forum-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5841" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6009" uniqueCount="354">
   <si>
     <t>Class Name</t>
   </si>
@@ -654,36 +654,36 @@
     <t>pageSize</t>
   </si>
   <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>email</t>
+    <t>post</t>
+  </si>
+  <si>
+    <t>likesAmount</t>
+  </si>
+  <si>
+    <t>modificationTimestamp</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>likesAmount</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>modificationTimestamp</t>
-  </si>
-  <si>
     <t>query</t>
   </si>
   <si>
@@ -696,24 +696,24 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>posts</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>posts</t>
+    <t>likedResponses</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>responses</t>
   </si>
   <si>
     <t>surname</t>
   </si>
   <si>
-    <t>responses</t>
-  </si>
-  <si>
-    <t>likedResponses</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>likedPosts</t>
   </si>
   <si>
@@ -729,36 +729,36 @@
     <t>postId</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>OLDEST_FIRST</t>
+  </si>
+  <si>
+    <t>NEWEST_FIRST</t>
+  </si>
+  <si>
+    <t>REVERSE_ALPHABETICAL</t>
+  </si>
+  <si>
     <t>ALPHABETICAL</t>
   </si>
   <si>
-    <t>OLDEST_FIRST</t>
-  </si>
-  <si>
-    <t>REVERSE_ALPHABETICAL</t>
-  </si>
-  <si>
-    <t>NEWEST_FIRST</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
+    <t>postsAmount</t>
   </si>
   <si>
     <t>parentTopicId</t>
   </si>
   <si>
-    <t>postsAmount</t>
-  </si>
-  <si>
     <t>isLiked</t>
   </si>
   <si>
+    <t>responsesAmount</t>
+  </si>
+  <si>
     <t>topic</t>
   </si>
   <si>
-    <t>responsesAmount</t>
-  </si>
-  <si>
     <t>pageAmount</t>
   </si>
   <si>
@@ -804,79 +804,286 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>26</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TopQuerySpecification$TopQuerySpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>PostInputDTO$PostInputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseLikeDTO$PostResponseLikeDTOBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseOutputDTO$PostResponseOutputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>PostResponseQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>PostResponseQuerySpecification()</t>
+  </si>
+  <si>
+    <t>UserNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>UserNotFoundException()</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PostLikeDTO(java.lang.Long, java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostLikeDTO()</t>
+  </si>
+  <si>
+    <t>UserDTO$UserDTOBuilder()</t>
+  </si>
+  <si>
+    <t>TopicInputDTO$TopicInputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>TopicInputDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.Long)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TopicInputDTO()</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>126</t>
+    <t>UserDTO(java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set, java.util.Set, java.util.Set, java.util.Set)</t>
+  </si>
+  <si>
+    <t>UserDTO()</t>
+  </si>
+  <si>
+    <t>PostQuerySpecification$PostQuerySpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostResponseNotFoundException()</t>
+  </si>
+  <si>
+    <t>PostResponseQuerySpecification$PostResponseQuerySpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseInputDTO(java.lang.Long, java.lang.String, java.lang.Long, java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostResponseInputDTO()</t>
+  </si>
+  <si>
+    <t>UserConflictException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>UserConflictException()</t>
+  </si>
+  <si>
+    <t>PostResponseOutputDTO(java.lang.Long, java.lang.String, java.time.LocalDateTime, java.time.LocalDateTime, java.lang.Long, dto.UserDTO, java.util.Set, java.lang.Long)</t>
+  </si>
+  <si>
+    <t>PostResponseOutputDTO()</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TopicSortingOrder(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>PostException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostException()</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>TopicOutputDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.Long, java.util.Set, java.lang.Long)</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>TopicOutputDTO()</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
+    <t>PostOutputDTO(java.lang.Long, java.lang.String, java.lang.String, java.time.LocalDateTime, java.time.LocalDateTime, dto.topic.TopicOutputDTO, dto.UserDTO, java.lang.Boolean, java.util.Set, java.lang.Integer, java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>PostOutputDTO()</t>
+  </si>
+  <si>
+    <t>TopicQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer, dto.topic.TopicSortingOrder)</t>
+  </si>
+  <si>
+    <t>PostQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer, enums.PostSortingOrder)</t>
+  </si>
+  <si>
+    <t>PostResponseInputDTO$PostResponseInputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>TopicOutputDTO$TopicOutputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseLikeDTO(java.lang.Long, java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostResponseLikeDTO()</t>
+  </si>
+  <si>
+    <t>PostNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostNotFoundException()</t>
+  </si>
+  <si>
+    <t>TopicNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>TopicNotFoundException()</t>
+  </si>
+  <si>
+    <t>PostLikeDTO$PostLikeDTOBuilder()</t>
+  </si>
+  <si>
+    <t>TopQuerySpecification(java.lang.Long, java.lang.Integer, java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>TopicException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>TopicException()</t>
+  </si>
+  <si>
+    <t>PostOutputDTO$PostOutputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>UserException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>UserException()</t>
+  </si>
+  <si>
+    <t>TopicQuerySpecification$TopicQuerySpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>PostInputDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.Long, java.lang.String)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>PostInputDTO()</t>
+  </si>
+  <si>
+    <t>PostResponseException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostResponseException()</t>
+  </si>
+  <si>
+    <t>PostSortingOrder(java.lang.String, int)</t>
   </si>
 </sst>
 </file>
@@ -12199,7 +12406,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C354"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12273,13 +12480,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8">
@@ -12287,7 +12494,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>278</v>
@@ -12298,7 +12505,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>278</v>
@@ -12309,7 +12516,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>278</v>
@@ -12320,7 +12527,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>278</v>
@@ -12331,10 +12538,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
@@ -12342,7 +12549,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>279</v>
@@ -12350,24 +12557,24 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16">
@@ -12375,10 +12582,10 @@
         <v>35</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
@@ -12386,43 +12593,43 @@
         <v>35</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21">
@@ -12430,7 +12637,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>278</v>
@@ -12441,7 +12648,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>278</v>
@@ -12452,7 +12659,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>278</v>
@@ -12463,7 +12670,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>278</v>
@@ -12474,7 +12681,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>278</v>
@@ -12485,10 +12692,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
@@ -12496,29 +12703,29 @@
         <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>279</v>
@@ -12526,10 +12733,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>279</v>
@@ -12537,13 +12744,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -12551,7 +12758,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>279</v>
@@ -12562,7 +12769,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>279</v>
@@ -12573,7 +12780,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>279</v>
@@ -12584,10 +12791,10 @@
         <v>45</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
@@ -12595,7 +12802,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>279</v>
@@ -12606,10 +12813,10 @@
         <v>45</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
@@ -12617,7 +12824,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>279</v>
@@ -12625,21 +12832,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>279</v>
@@ -12647,21 +12854,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>279</v>
@@ -12669,32 +12876,32 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>279</v>
@@ -12702,13 +12909,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47">
@@ -12716,7 +12923,7 @@
         <v>74</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>279</v>
@@ -12724,120 +12931,120 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>278</v>
@@ -12845,7 +13052,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>83</v>
@@ -12856,10 +13063,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>278</v>
@@ -12867,10 +13074,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>278</v>
@@ -12878,54 +13085,54 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>279</v>
@@ -12933,10 +13140,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>279</v>
@@ -12944,76 +13151,76 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>279</v>
@@ -13021,13 +13228,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76">
@@ -13035,7 +13242,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>279</v>
@@ -13043,10 +13250,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>279</v>
@@ -13054,10 +13261,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>279</v>
@@ -13065,10 +13272,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>279</v>
@@ -13076,10 +13283,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>279</v>
@@ -13087,10 +13294,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>279</v>
@@ -13098,10 +13305,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>279</v>
@@ -13109,10 +13316,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>279</v>
@@ -13120,10 +13327,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>279</v>
@@ -13131,21 +13338,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>279</v>
@@ -13153,21 +13360,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>279</v>
@@ -13175,24 +13382,24 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>101</v>
+        <v>298</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91">
@@ -13200,7 +13407,7 @@
         <v>84</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>279</v>
@@ -13211,7 +13418,7 @@
         <v>84</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>279</v>
@@ -13222,7 +13429,7 @@
         <v>84</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>279</v>
@@ -13233,10 +13440,10 @@
         <v>84</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95">
@@ -13244,7 +13451,7 @@
         <v>84</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>279</v>
@@ -13255,10 +13462,10 @@
         <v>84</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97">
@@ -13266,7 +13473,7 @@
         <v>84</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>279</v>
@@ -13274,54 +13481,54 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>279</v>
@@ -13329,10 +13536,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>279</v>
@@ -13340,43 +13547,43 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>279</v>
@@ -13384,21 +13591,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>279</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>279</v>
@@ -13406,21 +13613,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>279</v>
@@ -13428,87 +13635,87 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>279</v>
@@ -13516,21 +13723,21 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>279</v>
@@ -13538,54 +13745,54 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>279</v>
@@ -13593,10 +13800,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>279</v>
@@ -13604,21 +13811,21 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>279</v>
@@ -13626,10 +13833,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>279</v>
@@ -13637,10 +13844,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>279</v>
@@ -13648,10 +13855,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>279</v>
@@ -13659,10 +13866,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>279</v>
@@ -13670,10 +13877,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>279</v>
@@ -13681,10 +13888,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>279</v>
@@ -13692,10 +13899,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>279</v>
@@ -13703,10 +13910,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>279</v>
@@ -13714,98 +13921,98 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>279</v>
@@ -13813,10 +14020,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>279</v>
@@ -13824,10 +14031,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>279</v>
@@ -13835,21 +14042,21 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>279</v>
@@ -13857,10 +14064,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>279</v>
@@ -13868,10 +14075,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>279</v>
@@ -13879,10 +14086,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>279</v>
@@ -13890,10 +14097,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>279</v>
@@ -13901,10 +14108,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>279</v>
@@ -13912,10 +14119,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>279</v>
@@ -13923,10 +14130,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>279</v>
@@ -13934,10 +14141,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>279</v>
@@ -13945,10 +14152,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>279</v>
@@ -13956,10 +14163,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>279</v>
@@ -13967,10 +14174,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>279</v>
@@ -13978,10 +14185,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>279</v>
@@ -13989,18 +14196,18 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B163" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B164" t="s" s="0">
         <v>55</v>
@@ -14011,18 +14218,18 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B165" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B166" t="s" s="0">
         <v>12</v>
@@ -14033,54 +14240,54 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>279</v>
@@ -14088,10 +14295,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>279</v>
@@ -14099,54 +14306,54 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>279</v>
@@ -14154,21 +14361,21 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>279</v>
@@ -14176,10 +14383,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>279</v>
@@ -14187,10 +14394,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>279</v>
@@ -14198,10 +14405,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>279</v>
@@ -14209,10 +14416,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>279</v>
@@ -14220,10 +14427,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>279</v>
@@ -14231,10 +14438,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>279</v>
@@ -14242,10 +14449,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>279</v>
@@ -14253,10 +14460,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>279</v>
@@ -14264,10 +14471,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>279</v>
@@ -14275,10 +14482,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>279</v>
@@ -14286,21 +14493,21 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>279</v>
@@ -14308,21 +14515,21 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>279</v>
@@ -14330,21 +14537,21 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>279</v>
@@ -14352,32 +14559,32 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>279</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>279</v>
@@ -14385,10 +14592,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>279</v>
@@ -14396,10 +14603,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>279</v>
@@ -14407,10 +14614,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>279</v>
@@ -14418,10 +14625,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>279</v>
@@ -14429,21 +14636,21 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>279</v>
@@ -14451,21 +14658,21 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>279</v>
@@ -14473,10 +14680,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>279</v>
@@ -14484,10 +14691,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>279</v>
@@ -14495,10 +14702,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>279</v>
@@ -14506,10 +14713,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>279</v>
@@ -14517,10 +14724,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>279</v>
@@ -14528,10 +14735,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>279</v>
@@ -14539,10 +14746,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>279</v>
@@ -14550,10 +14757,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>279</v>
@@ -14561,10 +14768,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>279</v>
@@ -14572,21 +14779,21 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>279</v>
@@ -14594,21 +14801,21 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>279</v>
@@ -14616,54 +14823,54 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>278</v>
+        <v>324</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>278</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>279</v>
@@ -14671,87 +14878,87 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>279</v>
@@ -14759,10 +14966,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>279</v>
@@ -14770,10 +14977,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>279</v>
@@ -14781,10 +14988,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>279</v>
@@ -14792,21 +14999,21 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>279</v>
@@ -14814,54 +15021,54 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>55</v>
+        <v>328</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>279</v>
@@ -14869,32 +15076,32 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>279</v>
@@ -14902,10 +15109,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>279</v>
@@ -14913,10 +15120,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>279</v>
@@ -14924,10 +15131,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>279</v>
@@ -14935,10 +15142,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>279</v>
@@ -14946,21 +15153,21 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>279</v>
@@ -14968,21 +15175,21 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>279</v>
@@ -14990,54 +15197,54 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>278</v>
@@ -15045,43 +15252,43 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>278</v>
@@ -15089,10 +15296,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>278</v>
@@ -15100,10 +15307,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>278</v>
@@ -15111,10 +15318,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>278</v>
@@ -15122,10 +15329,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>278</v>
@@ -15133,10 +15340,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>278</v>
@@ -15144,21 +15351,21 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>279</v>
@@ -15166,65 +15373,65 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>279</v>
@@ -15232,21 +15439,21 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>279</v>
@@ -15254,21 +15461,21 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>279</v>
@@ -15276,32 +15483,32 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>279</v>
@@ -15309,21 +15516,21 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>279</v>
@@ -15331,54 +15538,54 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>279</v>
@@ -15386,21 +15593,21 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>279</v>
@@ -15408,32 +15615,32 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C292" t="s" s="0">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>279</v>
@@ -15441,10 +15648,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>279</v>
@@ -15452,10 +15659,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>279</v>
@@ -15463,10 +15670,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>279</v>
@@ -15474,13 +15681,629 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B298" t="s" s="0">
+      <c r="B347" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B353" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C298" t="s" s="0">
-        <v>251</v>
+      <c r="C353" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -15612,13 +16435,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -15626,7 +16449,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>144</v>
@@ -15640,13 +16463,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -15660,7 +16483,7 @@
         <v>144</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -15668,13 +16491,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -15688,7 +16511,7 @@
         <v>144</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -15696,13 +16519,13 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -15710,13 +16533,13 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -15738,7 +16561,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>144</v>
@@ -15752,7 +16575,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>144</v>
@@ -15766,13 +16589,13 @@
         <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -15786,7 +16609,7 @@
         <v>144</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -15808,7 +16631,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>144</v>
@@ -15822,7 +16645,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>144</v>
@@ -15850,13 +16673,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -15864,13 +16687,13 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -15884,7 +16707,7 @@
         <v>144</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -15892,13 +16715,13 @@
         <v>74</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -15906,13 +16729,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -15920,7 +16743,7 @@
         <v>81</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>144</v>
@@ -15940,7 +16763,7 @@
         <v>144</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -15954,7 +16777,7 @@
         <v>144</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -15968,7 +16791,7 @@
         <v>144</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -16018,7 +16841,7 @@
         <v>90</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>144</v>
@@ -16032,13 +16855,13 @@
         <v>90</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -16046,13 +16869,13 @@
         <v>90</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -16060,7 +16883,7 @@
         <v>90</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>144</v>
@@ -16074,13 +16897,13 @@
         <v>91</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -16102,7 +16925,7 @@
         <v>91</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>144</v>
@@ -16116,13 +16939,13 @@
         <v>91</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -16130,13 +16953,13 @@
         <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -16144,13 +16967,13 @@
         <v>84</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -16158,13 +16981,13 @@
         <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
@@ -16172,13 +16995,13 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
@@ -16186,7 +17009,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>144</v>
@@ -16200,13 +17023,13 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -16214,7 +17037,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>144</v>
@@ -16228,13 +17051,13 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
@@ -16242,13 +17065,13 @@
         <v>113</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
@@ -16256,7 +17079,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>144</v>
@@ -16270,13 +17093,13 @@
         <v>113</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
@@ -16284,13 +17107,13 @@
         <v>113</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -16312,13 +17135,13 @@
         <v>117</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58">
@@ -16326,13 +17149,13 @@
         <v>117</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -16340,13 +17163,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -16354,7 +17177,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>144</v>
@@ -16368,13 +17191,13 @@
         <v>54</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
@@ -16382,7 +17205,7 @@
         <v>118</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>144</v>
@@ -16396,7 +17219,7 @@
         <v>118</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>144</v>
@@ -16424,7 +17247,7 @@
         <v>118</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>144</v>
@@ -16452,13 +17275,13 @@
         <v>124</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68">
@@ -16466,13 +17289,13 @@
         <v>124</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -16486,7 +17309,7 @@
         <v>144</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
@@ -16494,13 +17317,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
@@ -16508,13 +17331,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
@@ -16522,13 +17345,13 @@
         <v>39</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
@@ -16536,7 +17359,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>144</v>
@@ -16550,13 +17373,13 @@
         <v>39</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -16564,7 +17387,7 @@
         <v>39</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>144</v>
@@ -16578,7 +17401,7 @@
         <v>39</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>144</v>
@@ -16595,10 +17418,10 @@
         <v>235</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -16651,10 +17474,10 @@
         <v>239</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -16676,13 +17499,13 @@
         <v>156</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84">
@@ -16690,13 +17513,13 @@
         <v>156</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -16704,7 +17527,7 @@
         <v>157</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>144</v>
@@ -16718,7 +17541,7 @@
         <v>157</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>144</v>
@@ -16732,7 +17555,7 @@
         <v>157</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>144</v>
@@ -16746,13 +17569,13 @@
         <v>157</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
@@ -16760,7 +17583,7 @@
         <v>157</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>144</v>
@@ -16774,13 +17597,13 @@
         <v>157</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -16802,7 +17625,7 @@
         <v>163</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>144</v>
@@ -16816,13 +17639,13 @@
         <v>163</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>157</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
@@ -16830,13 +17653,13 @@
         <v>163</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -16844,13 +17667,13 @@
         <v>163</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
@@ -16858,13 +17681,13 @@
         <v>163</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
@@ -16872,13 +17695,13 @@
         <v>163</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
@@ -16886,13 +17709,13 @@
         <v>163</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -16900,13 +17723,13 @@
         <v>163</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
@@ -16914,13 +17737,13 @@
         <v>163</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
@@ -16928,13 +17751,13 @@
         <v>163</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102">
@@ -16942,13 +17765,13 @@
         <v>175</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103">
@@ -16956,13 +17779,13 @@
         <v>175</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>138</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104">
@@ -16984,13 +17807,13 @@
         <v>175</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -16998,13 +17821,13 @@
         <v>116</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107">
@@ -17012,7 +17835,7 @@
         <v>116</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>144</v>
@@ -17026,13 +17849,13 @@
         <v>116</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109">
@@ -17054,7 +17877,7 @@
         <v>123</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>144</v>
@@ -17068,13 +17891,13 @@
         <v>123</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112">
@@ -17082,7 +17905,7 @@
         <v>123</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>144</v>
@@ -17096,13 +17919,13 @@
         <v>123</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -17110,7 +17933,7 @@
         <v>161</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>144</v>
@@ -17124,13 +17947,13 @@
         <v>161</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116">
@@ -17138,13 +17961,13 @@
         <v>161</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -17152,13 +17975,13 @@
         <v>161</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118">
@@ -17172,7 +17995,7 @@
         <v>144</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
@@ -17180,13 +18003,13 @@
         <v>161</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -17194,7 +18017,7 @@
         <v>36</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>144</v>
@@ -17208,7 +18031,7 @@
         <v>36</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>144</v>
@@ -17236,13 +18059,13 @@
         <v>186</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124">
@@ -17250,13 +18073,13 @@
         <v>186</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -17278,13 +18101,13 @@
         <v>187</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127">
@@ -17292,13 +18115,13 @@
         <v>187</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -17312,7 +18135,7 @@
         <v>144</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129">
@@ -17320,13 +18143,13 @@
         <v>79</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -17334,13 +18157,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131">
@@ -17348,13 +18171,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132">
@@ -17362,7 +18185,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>144</v>
@@ -17390,13 +18213,13 @@
         <v>190</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135">
@@ -17404,13 +18227,13 @@
         <v>190</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -17418,7 +18241,7 @@
         <v>168</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>144</v>
@@ -17432,13 +18255,13 @@
         <v>168</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138">
@@ -17460,13 +18283,13 @@
         <v>168</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140">
@@ -17474,13 +18297,13 @@
         <v>168</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
@@ -17488,13 +18311,13 @@
         <v>168</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142">
@@ -17502,13 +18325,13 @@
         <v>168</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143">
@@ -17516,13 +18339,13 @@
         <v>168</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144">
@@ -17530,13 +18353,13 @@
         <v>168</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145">
@@ -17544,13 +18367,13 @@
         <v>168</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146">
@@ -17558,13 +18381,13 @@
         <v>168</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147">
@@ -17586,13 +18409,13 @@
         <v>195</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149">
@@ -17600,13 +18423,13 @@
         <v>195</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -17614,13 +18437,13 @@
         <v>179</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
@@ -17642,13 +18465,13 @@
         <v>179</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
@@ -17656,13 +18479,13 @@
         <v>179</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>138</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154">
@@ -17670,7 +18493,7 @@
         <v>31</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>144</v>
@@ -17684,13 +18507,13 @@
         <v>31</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -17698,7 +18521,7 @@
         <v>31</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>144</v>
@@ -17712,7 +18535,7 @@
         <v>31</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>144</v>
@@ -17726,13 +18549,13 @@
         <v>31</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>144</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159">
@@ -17754,13 +18577,13 @@
         <v>198</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161">
@@ -17768,13 +18591,13 @@
         <v>198</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>63</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -17796,7 +18619,7 @@
         <v>182</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
@@ -17810,13 +18633,13 @@
         <v>182</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165">
@@ -17824,7 +18647,7 @@
         <v>182</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
@@ -17841,10 +18664,10 @@
         <v>239</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/forum-client_structure.xlsx
+++ b/data/backend/forum-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6009" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6009" uniqueCount="353">
   <si>
     <t>Class Name</t>
   </si>
@@ -819,123 +819,126 @@
     <t>97</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TopQuerySpecification$TopQuerySpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>PostInputDTO$PostInputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseLikeDTO$PostResponseLikeDTOBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseOutputDTO$PostResponseOutputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>PostResponseQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer)</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>212</t>
+    <t>PostResponseQuerySpecification()</t>
+  </si>
+  <si>
+    <t>UserNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>UserNotFoundException()</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PostLikeDTO(java.lang.Long, java.lang.String)</t>
+  </si>
+  <si>
+    <t>PostLikeDTO()</t>
+  </si>
+  <si>
+    <t>UserDTO$UserDTOBuilder()</t>
+  </si>
+  <si>
+    <t>TopicInputDTO$TopicInputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>TopicInputDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.Long)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TopicInputDTO()</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>UserDTO(java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set, java.util.Set, java.util.Set, java.util.Set)</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>TopQuerySpecification$TopQuerySpecificationBuilder()</t>
-  </si>
-  <si>
-    <t>PostInputDTO$PostInputDTOBuilder()</t>
-  </si>
-  <si>
-    <t>PostResponseLikeDTO$PostResponseLikeDTOBuilder()</t>
-  </si>
-  <si>
-    <t>PostResponseOutputDTO$PostResponseOutputDTOBuilder()</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>PostResponseQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>PostResponseQuerySpecification()</t>
-  </si>
-  <si>
-    <t>UserNotFoundException(java.lang.String)</t>
-  </si>
-  <si>
-    <t>UserNotFoundException()</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>PostLikeDTO(java.lang.Long, java.lang.String)</t>
-  </si>
-  <si>
-    <t>PostLikeDTO()</t>
-  </si>
-  <si>
-    <t>UserDTO$UserDTOBuilder()</t>
-  </si>
-  <si>
-    <t>TopicInputDTO$TopicInputDTOBuilder()</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>TopicInputDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.Long)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TopicInputDTO()</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>UserDTO(java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set, java.util.Set, java.util.Set, java.util.Set)</t>
-  </si>
-  <si>
     <t>UserDTO()</t>
   </si>
   <si>
@@ -969,9 +972,6 @@
     <t>PostResponseOutputDTO()</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>TopicSortingOrder(java.lang.String, int)</t>
   </si>
   <si>
@@ -1069,9 +1069,6 @@
   </si>
   <si>
     <t>PostInputDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.Long, java.lang.String)</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>PostInputDTO()</t>
@@ -12860,7 +12857,7 @@
         <v>20</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42">
@@ -12879,10 +12876,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>286</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>265</v>
       </c>
     </row>
     <row r="44">
@@ -13641,7 +13638,7 @@
         <v>303</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113">
@@ -13649,7 +13646,7 @@
         <v>84</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>252</v>
@@ -13726,7 +13723,7 @@
         <v>113</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>252</v>
@@ -13737,7 +13734,7 @@
         <v>117</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>279</v>
@@ -13748,7 +13745,7 @@
         <v>117</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>252</v>
@@ -13814,7 +13811,7 @@
         <v>54</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>252</v>
@@ -13968,7 +13965,7 @@
         <v>118</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>299</v>
@@ -13979,7 +13976,7 @@
         <v>118</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>252</v>
@@ -13990,7 +13987,7 @@
         <v>124</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>279</v>
@@ -14001,7 +13998,7 @@
         <v>124</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>252</v>
@@ -14243,10 +14240,10 @@
         <v>39</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168">
@@ -14254,7 +14251,7 @@
         <v>39</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>252</v>
@@ -14268,7 +14265,7 @@
         <v>146</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170">
@@ -14279,7 +14276,7 @@
         <v>139</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171">
@@ -14312,7 +14309,7 @@
         <v>154</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174">
@@ -14323,7 +14320,7 @@
         <v>143</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="175">
@@ -14334,7 +14331,7 @@
         <v>152</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176">
@@ -14345,7 +14342,7 @@
         <v>316</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177">
@@ -15709,7 +15706,7 @@
         <v>20</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="301">
@@ -15731,7 +15728,7 @@
         <v>339</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="303">
@@ -16182,7 +16179,7 @@
         <v>348</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>349</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344">
@@ -16190,7 +16187,7 @@
         <v>31</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>252</v>
@@ -16201,7 +16198,7 @@
         <v>198</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>279</v>
@@ -16212,7 +16209,7 @@
         <v>198</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>252</v>
@@ -16226,7 +16223,7 @@
         <v>146</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="348">
@@ -16237,7 +16234,7 @@
         <v>139</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="349">
@@ -16270,7 +16267,7 @@
         <v>154</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="352">
@@ -16281,7 +16278,7 @@
         <v>199</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="353">
@@ -16292,7 +16289,7 @@
         <v>152</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="354">
@@ -16300,10 +16297,10 @@
         <v>182</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/forum-client_structure.xlsx
+++ b/data/backend/forum-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6233" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6221" uniqueCount="354">
   <si>
     <t>Class Name</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>88</t>
@@ -13187,7 +13190,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C354"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13679,10 +13682,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>335</v>
@@ -13690,13 +13693,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47">
@@ -13704,7 +13707,7 @@
         <v>82</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>335</v>
@@ -13715,7 +13718,7 @@
         <v>82</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>335</v>
@@ -13726,7 +13729,7 @@
         <v>82</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>335</v>
@@ -13737,10 +13740,10 @@
         <v>82</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51">
@@ -13748,7 +13751,7 @@
         <v>82</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>335</v>
@@ -13759,10 +13762,10 @@
         <v>82</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
@@ -13770,7 +13773,7 @@
         <v>82</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>335</v>
@@ -13781,10 +13784,10 @@
         <v>82</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55">
@@ -13792,32 +13795,32 @@
         <v>82</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58">
@@ -13825,10 +13828,10 @@
         <v>91</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59">
@@ -13836,7 +13839,7 @@
         <v>91</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>334</v>
@@ -13847,7 +13850,7 @@
         <v>91</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>334</v>
@@ -13858,7 +13861,7 @@
         <v>91</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>334</v>
@@ -13869,7 +13872,7 @@
         <v>91</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>334</v>
@@ -13880,7 +13883,7 @@
         <v>91</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>334</v>
@@ -13891,7 +13894,7 @@
         <v>91</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>334</v>
@@ -13902,10 +13905,10 @@
         <v>91</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66">
@@ -13913,32 +13916,32 @@
         <v>91</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
@@ -13946,10 +13949,10 @@
         <v>101</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70">
@@ -13957,7 +13960,7 @@
         <v>101</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>334</v>
@@ -13968,7 +13971,7 @@
         <v>101</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>334</v>
@@ -13979,10 +13982,10 @@
         <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73">
@@ -13990,18 +13993,18 @@
         <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>335</v>
@@ -14009,10 +14012,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>335</v>
@@ -14023,7 +14026,7 @@
         <v>103</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>335</v>
@@ -14034,7 +14037,7 @@
         <v>103</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>335</v>
@@ -14045,7 +14048,7 @@
         <v>103</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>335</v>
@@ -14056,7 +14059,7 @@
         <v>103</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>335</v>
@@ -14067,7 +14070,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>335</v>
@@ -14078,7 +14081,7 @@
         <v>103</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>335</v>
@@ -14089,7 +14092,7 @@
         <v>103</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>335</v>
@@ -14100,10 +14103,10 @@
         <v>103</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84">
@@ -14111,7 +14114,7 @@
         <v>103</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>335</v>
@@ -14122,10 +14125,10 @@
         <v>103</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86">
@@ -14133,7 +14136,7 @@
         <v>103</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>335</v>
@@ -14144,10 +14147,10 @@
         <v>103</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88">
@@ -14155,32 +14158,32 @@
         <v>103</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91">
@@ -14188,7 +14191,7 @@
         <v>94</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>335</v>
@@ -14199,7 +14202,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>335</v>
@@ -14210,7 +14213,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>335</v>
@@ -14221,7 +14224,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>335</v>
@@ -14232,7 +14235,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>335</v>
@@ -14243,7 +14246,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>335</v>
@@ -14254,7 +14257,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>335</v>
@@ -14265,7 +14268,7 @@
         <v>94</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>335</v>
@@ -14276,7 +14279,7 @@
         <v>94</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>335</v>
@@ -14287,7 +14290,7 @@
         <v>94</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>335</v>
@@ -14298,7 +14301,7 @@
         <v>94</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>335</v>
@@ -14309,7 +14312,7 @@
         <v>94</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>335</v>
@@ -14320,7 +14323,7 @@
         <v>94</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>335</v>
@@ -14331,7 +14334,7 @@
         <v>94</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>335</v>
@@ -14342,7 +14345,7 @@
         <v>94</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>335</v>
@@ -14353,10 +14356,10 @@
         <v>94</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107">
@@ -14364,7 +14367,7 @@
         <v>94</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>335</v>
@@ -14375,10 +14378,10 @@
         <v>94</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109">
@@ -14386,7 +14389,7 @@
         <v>94</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>335</v>
@@ -14397,10 +14400,10 @@
         <v>94</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111">
@@ -14408,32 +14411,32 @@
         <v>94</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114">
@@ -14441,10 +14444,10 @@
         <v>129</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
@@ -14452,7 +14455,7 @@
         <v>129</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>334</v>
@@ -14463,7 +14466,7 @@
         <v>129</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>334</v>
@@ -14474,10 +14477,10 @@
         <v>129</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118">
@@ -14485,18 +14488,18 @@
         <v>129</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>335</v>
@@ -14504,35 +14507,35 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123">
@@ -14540,10 +14543,10 @@
         <v>61</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124">
@@ -14551,7 +14554,7 @@
         <v>61</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>334</v>
@@ -14562,10 +14565,10 @@
         <v>61</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126">
@@ -14573,18 +14576,18 @@
         <v>61</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>335</v>
@@ -14592,10 +14595,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>335</v>
@@ -14606,7 +14609,7 @@
         <v>138</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>335</v>
@@ -14617,7 +14620,7 @@
         <v>138</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>335</v>
@@ -14628,7 +14631,7 @@
         <v>138</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>335</v>
@@ -14639,7 +14642,7 @@
         <v>138</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>335</v>
@@ -14650,7 +14653,7 @@
         <v>138</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>335</v>
@@ -14661,7 +14664,7 @@
         <v>138</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>335</v>
@@ -14672,7 +14675,7 @@
         <v>138</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>335</v>
@@ -14683,10 +14686,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137">
@@ -14694,7 +14697,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>335</v>
@@ -14705,10 +14708,10 @@
         <v>138</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139">
@@ -14716,7 +14719,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>335</v>
@@ -14727,10 +14730,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141">
@@ -14738,29 +14741,29 @@
         <v>138</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>308</v>
@@ -14768,10 +14771,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>335</v>
@@ -14779,13 +14782,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146">
@@ -14793,7 +14796,7 @@
         <v>44</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>335</v>
@@ -14804,7 +14807,7 @@
         <v>44</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>335</v>
@@ -14815,7 +14818,7 @@
         <v>44</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>335</v>
@@ -14826,7 +14829,7 @@
         <v>44</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>335</v>
@@ -14837,7 +14840,7 @@
         <v>44</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>335</v>
@@ -14848,7 +14851,7 @@
         <v>44</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>335</v>
@@ -14859,7 +14862,7 @@
         <v>44</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>335</v>
@@ -14870,7 +14873,7 @@
         <v>44</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>335</v>
@@ -14881,7 +14884,7 @@
         <v>44</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>335</v>
@@ -14892,7 +14895,7 @@
         <v>44</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>335</v>
@@ -14903,7 +14906,7 @@
         <v>44</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>335</v>
@@ -14914,7 +14917,7 @@
         <v>44</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>335</v>
@@ -14925,7 +14928,7 @@
         <v>44</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>335</v>
@@ -14936,7 +14939,7 @@
         <v>44</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>335</v>
@@ -14947,7 +14950,7 @@
         <v>44</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>335</v>
@@ -14958,10 +14961,10 @@
         <v>44</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162">
@@ -14969,7 +14972,7 @@
         <v>44</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>335</v>
@@ -14980,10 +14983,10 @@
         <v>44</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164">
@@ -14991,7 +14994,7 @@
         <v>44</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>335</v>
@@ -15002,10 +15005,10 @@
         <v>44</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166">
@@ -15013,32 +15016,32 @@
         <v>44</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169">
@@ -15046,10 +15049,10 @@
         <v>164</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170">
@@ -15057,10 +15060,10 @@
         <v>164</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171">
@@ -15068,10 +15071,10 @@
         <v>164</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172">
@@ -15079,10 +15082,10 @@
         <v>164</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173">
@@ -15090,10 +15093,10 @@
         <v>164</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174">
@@ -15101,40 +15104,40 @@
         <v>164</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>335</v>
@@ -15142,13 +15145,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179">
@@ -15156,7 +15159,7 @@
         <v>186</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>335</v>
@@ -15167,7 +15170,7 @@
         <v>186</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>335</v>
@@ -15178,7 +15181,7 @@
         <v>186</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>335</v>
@@ -15189,7 +15192,7 @@
         <v>186</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>335</v>
@@ -15200,7 +15203,7 @@
         <v>186</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>335</v>
@@ -15211,7 +15214,7 @@
         <v>186</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>335</v>
@@ -15222,7 +15225,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>335</v>
@@ -15233,7 +15236,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>335</v>
@@ -15244,7 +15247,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>335</v>
@@ -15255,7 +15258,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>335</v>
@@ -15266,7 +15269,7 @@
         <v>186</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>335</v>
@@ -15277,10 +15280,10 @@
         <v>186</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191">
@@ -15288,7 +15291,7 @@
         <v>186</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>335</v>
@@ -15299,10 +15302,10 @@
         <v>186</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="193">
@@ -15310,7 +15313,7 @@
         <v>186</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>335</v>
@@ -15321,10 +15324,10 @@
         <v>186</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195">
@@ -15332,32 +15335,32 @@
         <v>186</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198">
@@ -15365,7 +15368,7 @@
         <v>194</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>335</v>
@@ -15376,7 +15379,7 @@
         <v>194</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>335</v>
@@ -15387,7 +15390,7 @@
         <v>194</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>335</v>
@@ -15398,7 +15401,7 @@
         <v>194</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>335</v>
@@ -15409,7 +15412,7 @@
         <v>194</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>335</v>
@@ -15420,7 +15423,7 @@
         <v>194</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>335</v>
@@ -15431,7 +15434,7 @@
         <v>194</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>335</v>
@@ -15442,7 +15445,7 @@
         <v>194</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>335</v>
@@ -15453,7 +15456,7 @@
         <v>194</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>335</v>
@@ -15464,7 +15467,7 @@
         <v>194</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>335</v>
@@ -15475,7 +15478,7 @@
         <v>194</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>335</v>
@@ -15486,7 +15489,7 @@
         <v>194</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>335</v>
@@ -15497,7 +15500,7 @@
         <v>194</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>335</v>
@@ -15508,7 +15511,7 @@
         <v>194</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>335</v>
@@ -15519,7 +15522,7 @@
         <v>194</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>335</v>
@@ -15530,7 +15533,7 @@
         <v>194</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>335</v>
@@ -15541,7 +15544,7 @@
         <v>194</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>335</v>
@@ -15552,7 +15555,7 @@
         <v>194</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>335</v>
@@ -15563,7 +15566,7 @@
         <v>194</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>335</v>
@@ -15574,7 +15577,7 @@
         <v>194</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>335</v>
@@ -15585,7 +15588,7 @@
         <v>194</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>335</v>
@@ -15596,10 +15599,10 @@
         <v>194</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="220">
@@ -15607,7 +15610,7 @@
         <v>194</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>335</v>
@@ -15618,10 +15621,10 @@
         <v>194</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="222">
@@ -15629,7 +15632,7 @@
         <v>194</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>335</v>
@@ -15640,10 +15643,10 @@
         <v>194</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="224">
@@ -15651,32 +15654,32 @@
         <v>194</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="227">
@@ -15684,10 +15687,10 @@
         <v>208</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="228">
@@ -15695,7 +15698,7 @@
         <v>208</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>335</v>
@@ -15706,7 +15709,7 @@
         <v>208</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>335</v>
@@ -15717,7 +15720,7 @@
         <v>208</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>335</v>
@@ -15728,7 +15731,7 @@
         <v>208</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>335</v>
@@ -15739,7 +15742,7 @@
         <v>208</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>335</v>
@@ -15750,7 +15753,7 @@
         <v>208</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>335</v>
@@ -15761,7 +15764,7 @@
         <v>208</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>335</v>
@@ -15772,10 +15775,10 @@
         <v>208</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="236">
@@ -15783,7 +15786,7 @@
         <v>208</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>335</v>
@@ -15794,10 +15797,10 @@
         <v>208</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="238">
@@ -15805,7 +15808,7 @@
         <v>208</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>335</v>
@@ -15813,21 +15816,21 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>335</v>
@@ -15838,10 +15841,10 @@
         <v>133</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="242">
@@ -15849,7 +15852,7 @@
         <v>133</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>335</v>
@@ -15860,7 +15863,7 @@
         <v>133</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>335</v>
@@ -15871,7 +15874,7 @@
         <v>133</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>335</v>
@@ -15882,7 +15885,7 @@
         <v>133</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>335</v>
@@ -15893,7 +15896,7 @@
         <v>133</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>335</v>
@@ -15904,7 +15907,7 @@
         <v>133</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>335</v>
@@ -15915,10 +15918,10 @@
         <v>133</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="249">
@@ -15926,7 +15929,7 @@
         <v>133</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>335</v>
@@ -15937,10 +15940,10 @@
         <v>133</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="251">
@@ -15948,43 +15951,43 @@
         <v>133</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="255">
@@ -15992,10 +15995,10 @@
         <v>145</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="256">
@@ -16003,7 +16006,7 @@
         <v>145</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>334</v>
@@ -16014,10 +16017,10 @@
         <v>145</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258">
@@ -16025,43 +16028,43 @@
         <v>145</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="262">
@@ -16069,10 +16072,10 @@
         <v>191</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="263">
@@ -16080,7 +16083,7 @@
         <v>191</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>334</v>
@@ -16091,7 +16094,7 @@
         <v>191</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>334</v>
@@ -16102,7 +16105,7 @@
         <v>191</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>334</v>
@@ -16113,10 +16116,10 @@
         <v>191</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="267">
@@ -16124,29 +16127,29 @@
         <v>191</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>335</v>
@@ -16154,10 +16157,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>335</v>
@@ -16168,7 +16171,7 @@
         <v>40</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>335</v>
@@ -16179,7 +16182,7 @@
         <v>40</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>335</v>
@@ -16190,10 +16193,10 @@
         <v>40</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="274">
@@ -16201,7 +16204,7 @@
         <v>40</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>335</v>
@@ -16212,10 +16215,10 @@
         <v>40</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="276">
@@ -16223,10 +16226,10 @@
         <v>40</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="277">
@@ -16234,10 +16237,10 @@
         <v>40</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278">
@@ -16245,18 +16248,18 @@
         <v>40</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>339</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>335</v>
@@ -16264,68 +16267,68 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="286">
@@ -16333,40 +16336,40 @@
         <v>89</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>335</v>
@@ -16374,10 +16377,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>335</v>
@@ -16388,10 +16391,10 @@
         <v>16</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292">
@@ -16399,7 +16402,7 @@
         <v>16</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>335</v>
@@ -16410,7 +16413,7 @@
         <v>16</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>335</v>
@@ -16421,7 +16424,7 @@
         <v>16</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>335</v>
@@ -16432,10 +16435,10 @@
         <v>16</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296">
@@ -16443,7 +16446,7 @@
         <v>16</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>335</v>
@@ -16454,10 +16457,10 @@
         <v>16</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="298">
@@ -16465,7 +16468,7 @@
         <v>16</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>335</v>
@@ -16473,68 +16476,68 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="305">
@@ -16542,10 +16545,10 @@
         <v>199</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306">
@@ -16553,7 +16556,7 @@
         <v>199</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>334</v>
@@ -16564,7 +16567,7 @@
         <v>199</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>334</v>
@@ -16575,7 +16578,7 @@
         <v>199</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>334</v>
@@ -16586,7 +16589,7 @@
         <v>199</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>334</v>
@@ -16597,7 +16600,7 @@
         <v>199</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>334</v>
@@ -16608,7 +16611,7 @@
         <v>199</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C311" t="s" s="0">
         <v>334</v>
@@ -16619,7 +16622,7 @@
         <v>199</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="C312" t="s" s="0">
         <v>334</v>
@@ -16630,10 +16633,10 @@
         <v>199</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="314">
@@ -16641,76 +16644,76 @@
         <v>199</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="321">
@@ -16718,10 +16721,10 @@
         <v>213</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="322">
@@ -16729,10 +16732,10 @@
         <v>213</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="323">
@@ -16740,40 +16743,40 @@
         <v>213</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>335</v>
@@ -16781,10 +16784,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>335</v>
@@ -16795,7 +16798,7 @@
         <v>34</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>335</v>
@@ -16806,7 +16809,7 @@
         <v>34</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>335</v>
@@ -16817,7 +16820,7 @@
         <v>34</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>335</v>
@@ -16828,7 +16831,7 @@
         <v>34</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>335</v>
@@ -16839,7 +16842,7 @@
         <v>34</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>335</v>
@@ -16850,7 +16853,7 @@
         <v>34</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>335</v>
@@ -16861,7 +16864,7 @@
         <v>34</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>335</v>
@@ -16872,10 +16875,10 @@
         <v>34</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="336">
@@ -16883,7 +16886,7 @@
         <v>34</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>335</v>
@@ -16894,10 +16897,10 @@
         <v>34</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="338">
@@ -16905,7 +16908,7 @@
         <v>34</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>335</v>
@@ -16916,10 +16919,10 @@
         <v>34</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="340">
@@ -16927,76 +16930,76 @@
         <v>34</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="347">
@@ -17004,10 +17007,10 @@
         <v>217</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="348">
@@ -17015,10 +17018,10 @@
         <v>217</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349">
@@ -17026,10 +17029,10 @@
         <v>217</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350">
@@ -17037,54 +17040,10 @@
         <v>217</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="B351" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C351" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="B352" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="C352" t="s" s="0">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="B353" t="s" s="0">
-        <v>254</v>
-      </c>
-      <c r="C353" t="s" s="0">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="B354" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="C354" t="s" s="0">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
